--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -521,7 +521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -607,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>

--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -90,6 +90,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,12 +158,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,15 +525,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.26953125" customWidth="1"/>
     <col min="2" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.36328125" customWidth="1"/>
     <col min="5" max="5" width="22.54296875" customWidth="1"/>
     <col min="6" max="6" width="29.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.90625" bestFit="1" customWidth="1"/>
@@ -568,7 +570,7 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -591,7 +593,7 @@
       <c r="C3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -609,12 +611,12 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -629,5 +631,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -62,15 +62,9 @@
     <t>version</t>
   </si>
   <si>
-    <t>79.0.3945.117</t>
-  </si>
-  <si>
     <t>88.0.4324.96</t>
   </si>
   <si>
-    <t>90.0.4430.85</t>
-  </si>
-  <si>
     <t>TestName</t>
   </si>
   <si>
@@ -83,7 +77,13 @@
     <t>MenuToSelect</t>
   </si>
   <si>
-    <t>edge</t>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>97.0</t>
   </si>
 </sst>
 </file>
@@ -484,13 +484,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.65">
@@ -539,10 +539,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.65">
       <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>8</v>
@@ -557,7 +557,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.65">
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -591,10 +591,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -617,7 +617,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>

--- a/target/test-classes/excel/testdata.xlsx
+++ b/target/test-classes/excel/testdata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>loginLogoutTest</t>
   </si>
@@ -77,13 +77,10 @@
     <t>MenuToSelect</t>
   </si>
   <si>
+    <t>edge</t>
+  </si>
+  <si>
     <t>98.0</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>97.0</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="38.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.26953125" customWidth="1"/>
     <col min="2" max="3" width="18.1796875" customWidth="1"/>
@@ -591,10 +588,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
@@ -614,10 +611,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
